--- a/public/assets/BOs/Freyr.xlsx
+++ b/public/assets/BOs/Freyr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411A58E-8F7E-4889-AFE5-34A406283081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435948B-EF4E-4CE9-BC31-C19298F539A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16935" yWindow="5115" windowWidth="43200" windowHeight="23445" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t>Archaic</t>
   </si>
@@ -682,7 +682,297 @@
     <t>2 TC FH - By Léonce</t>
   </si>
   <si>
-    <r>
+    <t>Auto-Queue Fishing Ships</t>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <t>1 Dwarf to Gold</t>
+  </si>
+  <si>
+    <t>1 to Wood</t>
+  </si>
+  <si>
+    <t>Advance (3.36) - Freya</t>
+  </si>
+  <si>
+    <t>Make a 2nd Dock</t>
+  </si>
+  <si>
+    <t>Pre-queue Hand Axe + Pickaxe</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Spam War Boats</t>
+  </si>
+  <si>
+    <t>Send Valkery to enemy Woodline and cast Forest Fire
+(Goal = villager idle time)</t>
+  </si>
+  <si>
+    <t>Focus: Fight the water defensively. 
+If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
+  </si>
+  <si>
+    <t>Anti Krush/early relic build - By Husksuppe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gatherers + ox cart to gold, 1 gatherer to straggler tree, gather 10 wood then go to hunt. </t>
+  </si>
+  <si>
+    <t>If defensive hunt, Berserk herds them into the TC. If aggressive hunt, gatherer lures it to the TC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3+initial wood gatherer to Food. Berserk places temple ASAP. </t>
+  </si>
+  <si>
+    <t>Autoqueue dwarves to put to gold.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to Food. Queue a Hersir ASAP. </t>
+  </si>
+  <si>
+    <t>Hersir and Berserk should harass aggress Oracles from the Kronos player.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Place autoqueued gatherers onto food and dwarves onto gold. Once wood gatherer has gathered enough wood for another ox cart, place it onto food.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">8 / 0 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance with two dwarves.</t>
+  </si>
+  <si>
+    <t>Advance - x (2:42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Take 4 food gatherers onto wood. Keep dwarves autoqueued.</t>
+  </si>
+  <si>
+    <t>Queue more Hersir from the Temple ASAP.</t>
+  </si>
+  <si>
+    <t>Classical (3:42)</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 2</t>
+  </si>
+  <si>
+    <t>Queue dwarves to gold until you survive the Krush.</t>
+  </si>
+  <si>
+    <t>Hersir rebuild Temple (if deconstructed) and build Great Hall. Raiding Cavalry are needed to fight Cheiroballista.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freyr / Loki / Odin  - Water - DoD Léonce </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">0 / </t>
     </r>
     <r>
@@ -692,6 +982,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -701,6 +992,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0</t>
     </r>
@@ -708,10 +1000,10 @@
   <si>
     <t>Initial vills: 
 2 Vills + Ox Cart on Wood
-1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
-  </si>
-  <si>
-    <t>Auto-Queue Fishing Ships</t>
+1 Vill build Ox Cart (Ox Cart to Gold) then back to Wood</t>
+  </si>
+  <si>
+    <t>builds a dock</t>
   </si>
   <si>
     <r>
@@ -721,6 +1013,40 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -730,17 +1056,15 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 0 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>1 to Food</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 / 3 / </t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>build house at 13 pop</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -748,23 +1072,101 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> / 0</t>
     </r>
   </si>
   <si>
-    <t>1 Dwarf to Gold</t>
-  </si>
-  <si>
+    <t>2 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -772,23 +1174,25 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ 3 / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>build a second house before temple</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -796,6 +1200,44 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>Aim for 6 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>4</t>
     </r>
@@ -805,17 +1247,12 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>1 to Wood</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / 4 / </t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -823,25 +1260,31 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 / </t>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 6 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0 / 11</t>
     </r>
     <r>
       <rPr>
@@ -850,406 +1293,33 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 2 / 0 </t>
-    </r>
-  </si>
-  <si>
-    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
-one extra boat after temple (stop auto-queue Fishing Ships)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 / 5 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 5 / 3 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Advance (3.36) - Freya</t>
-  </si>
-  <si>
-    <t>Make a 2nd Dock</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 3 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Vills transition:
-4 Food to Wood</t>
-  </si>
-  <si>
-    <t>Pre-queue Hand Axe + Pickaxe</t>
-  </si>
-  <si>
-    <t>Build 1 more Fishing Ship (9 in total)</t>
-  </si>
-  <si>
-    <t>Classical</t>
-  </si>
-  <si>
-    <t>Spam War Boats</t>
-  </si>
-  <si>
-    <t>Send Valkery to enemy Woodline and cast Forest Fire
-(Goal = villager idle time)</t>
-  </si>
-  <si>
-    <t>Focus: Fight the water defensively. 
-If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
-  </si>
-  <si>
-    <t>Standard Water - Léonce</t>
-  </si>
-  <si>
-    <t>Anti Krush/early relic build - By Husksuppe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 / 1 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2 gatherers + ox cart to gold, 1 gatherer to straggler tree, gather 10 wood then go to hunt. </t>
-  </si>
-  <si>
-    <t>If defensive hunt, Berserk herds them into the TC. If aggressive hunt, gatherer lures it to the TC.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3+initial wood gatherer to Food. Berserk places temple ASAP. </t>
-  </si>
-  <si>
-    <t>Autoqueue dwarves to put to gold.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1 to Food. Queue a Hersir ASAP. </t>
-  </si>
-  <si>
-    <t>Hersir and Berserk should harass aggress Oracles from the Kronos player.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">7 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Place autoqueued gatherers onto food and dwarves onto gold. Once wood gatherer has gathered enough wood for another ox cart, place it onto food.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">8 / 0 / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Advance with two dwarves.</t>
-  </si>
-  <si>
-    <t>Advance - x (2:42)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Take 4 food gatherers onto wood. Keep dwarves autoqueued.</t>
-  </si>
-  <si>
-    <t>Queue more Hersir from the Temple ASAP.</t>
-  </si>
-  <si>
-    <t>Classical (3:42)</t>
-  </si>
-  <si>
-    <t>4 / 4 / 5 / 2</t>
-  </si>
-  <si>
-    <t>Queue dwarves to gold until you survive the Krush.</t>
-  </si>
-  <si>
-    <t>Hersir rebuild Temple (if deconstructed) and build Great Hall. Raiding Cavalry are needed to fight Cheiroballista.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/ 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Once 1 hersir and handaxe, swap all food to wood</t>
+  </si>
+  <si>
+    <t>Build more Fishing Ship (9 in total)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1477,33 +1547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
@@ -1579,11 +1622,6 @@
       <name val="Liberation Sans"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1634,8 +1672,111 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1716,8 +1857,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1797,7 +1980,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -1805,28 +1988,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="5"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="5"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="5"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1853,7 +2058,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1865,35 +2069,38 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1921,74 +2128,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="21" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="45" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="49">
     <cellStyle name="Accent" xfId="8" xr:uid="{71F600FC-EF8F-4AF1-BCF2-D23C0742A416}"/>
     <cellStyle name="Accent 1" xfId="9" xr:uid="{5C80D55F-672C-4234-8474-BC8A5C63E78B}"/>
+    <cellStyle name="Accent 1 5" xfId="28" xr:uid="{AA44AE50-E825-4587-BAE7-A43216A4ADCA}"/>
     <cellStyle name="Accent 2" xfId="10" xr:uid="{BF727C94-77B8-40BD-9D6D-1FD2062E449E}"/>
+    <cellStyle name="Accent 2 6" xfId="29" xr:uid="{FE51DF54-3154-426A-8EA4-3BF08F57ADD6}"/>
     <cellStyle name="Accent 3" xfId="11" xr:uid="{E9315713-B73F-42E9-9BB2-55A5FA4D5107}"/>
+    <cellStyle name="Accent 3 7" xfId="30" xr:uid="{9EBF8FAA-EA19-4FD4-8B22-0F9AE61A51EC}"/>
+    <cellStyle name="Accent 4" xfId="31" xr:uid="{468826BB-B7E1-47A7-8BDC-EAEB63216CB2}"/>
     <cellStyle name="Bad" xfId="12" xr:uid="{6762A621-8D08-4B30-B42C-8F17A392B396}"/>
+    <cellStyle name="Bad 8" xfId="32" xr:uid="{63C3C447-6351-40BB-8734-5B481C482F51}"/>
     <cellStyle name="Default" xfId="13" xr:uid="{F7D19F62-0A0A-4FAE-8CA3-A37EB7085F64}"/>
+    <cellStyle name="Default 9" xfId="33" xr:uid="{03E22D56-747E-46E2-AAF7-0A9977E7D2F7}"/>
     <cellStyle name="Error" xfId="14" xr:uid="{77345266-6804-4973-83F0-F2E139F7524B}"/>
+    <cellStyle name="Error 10" xfId="34" xr:uid="{2623DA01-6C54-4C46-B327-74D8BED6EBAC}"/>
     <cellStyle name="Footnote" xfId="15" xr:uid="{D9559730-980A-48D1-BB4B-05489FE1DFAA}"/>
+    <cellStyle name="Footnote 11" xfId="35" xr:uid="{D393934E-4871-4244-B778-ACE14DF6ED9E}"/>
     <cellStyle name="Good" xfId="16" xr:uid="{B82D53AF-2BCF-492E-8522-9A568B797DF2}"/>
+    <cellStyle name="Good 12" xfId="36" xr:uid="{E5397132-109D-4EE1-8B28-478CD33A64B1}"/>
     <cellStyle name="Heading" xfId="17" xr:uid="{641BFCEC-E0C5-4F0C-B2DE-66CABB0B272D}"/>
     <cellStyle name="Heading 1" xfId="18" xr:uid="{24AFFD1F-0977-48EE-8AF5-F08008A0F6F8}"/>
+    <cellStyle name="Heading 1 14" xfId="37" xr:uid="{0B019BF5-FD4F-43BA-834F-6031104FF8C3}"/>
+    <cellStyle name="Heading 13" xfId="38" xr:uid="{D9A66256-0A83-4715-BE56-ABF1832D8754}"/>
     <cellStyle name="Heading 2" xfId="19" xr:uid="{19DB0C42-5426-4AF6-8361-F66DD026DBD1}"/>
+    <cellStyle name="Heading 2 15" xfId="39" xr:uid="{F56763D6-C554-4B7F-9845-B603C7C98D69}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="20" xr:uid="{72FB6DB9-E658-45B3-ACF7-B73123003729}"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2 2" xfId="40" xr:uid="{E6946AB5-851A-400D-93E6-E6DDE434BBEB}"/>
+    <cellStyle name="Hyperlink 3" xfId="27" xr:uid="{1D05E671-8988-48BB-8AAF-7C4EBFD4EA17}"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{2890167A-D2D9-433A-BA39-86C2C5914AB9}"/>
     <cellStyle name="Lien hypertexte 3" xfId="5" xr:uid="{F83D2D5B-9F87-4191-A128-DC56A2401A74}"/>
     <cellStyle name="Neutral" xfId="21" xr:uid="{1EDF0B12-BDC4-4301-B5CF-F097A5D6F676}"/>
+    <cellStyle name="Neutral 16" xfId="41" xr:uid="{EA38F979-4C4D-497C-96F3-93EE4C85BAAC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{20EA1DEE-5D90-40CA-8F2B-7E4F35D1CA63}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{9926A76F-E45A-4EA8-B05F-718A1377A9BF}"/>
+    <cellStyle name="Note 17" xfId="42" xr:uid="{8C8402EB-6B26-49D5-99FD-20EEE5E0DB39}"/>
     <cellStyle name="Note 2" xfId="22" xr:uid="{6F4281D1-F58A-4D7F-AA00-213543FF11EB}"/>
     <cellStyle name="Result" xfId="23" xr:uid="{1C9C490D-6E49-458C-A7BC-9E2D5FFFB8F0}"/>
+    <cellStyle name="Result 18" xfId="43" xr:uid="{D98DEF50-6CB2-40BC-BACD-40A2D2BD35CB}"/>
     <cellStyle name="Standaard 2" xfId="6" xr:uid="{EFCF1DDD-4A82-468E-80B9-B4D9225C41C6}"/>
+    <cellStyle name="Standaard 2 2" xfId="44" xr:uid="{20ADA542-8229-4EB2-A501-813709925E87}"/>
     <cellStyle name="Standaard 3" xfId="7" xr:uid="{D15AD2AD-06D0-4753-9B3A-93602034D087}"/>
+    <cellStyle name="Standaard 3 2" xfId="45" xr:uid="{6E71C022-45AF-4870-ABCB-071CDD941B75}"/>
     <cellStyle name="Status" xfId="24" xr:uid="{43DCB915-B05C-4358-A845-6C8D77328321}"/>
+    <cellStyle name="Status 19" xfId="46" xr:uid="{AB598256-D163-4BFA-BBDB-144A822FAA8C}"/>
     <cellStyle name="Text" xfId="25" xr:uid="{A0371508-3AEF-44AD-9CAD-12E36187D2A6}"/>
+    <cellStyle name="Text 20" xfId="47" xr:uid="{3857820D-2B58-4690-903F-0D55A2D7BABD}"/>
     <cellStyle name="Warning" xfId="26" xr:uid="{41B29E51-0CCA-4852-AAEE-F3D3F44CD8D4}"/>
+    <cellStyle name="Warning 21" xfId="48" xr:uid="{EA01A6F7-128B-4BA9-907D-345D702F3473}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2268,11 +2495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C539537-1B55-4B5D-8A65-A3644DA13BC0}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -2281,191 +2508,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" s="24" customFormat="1" ht="15">
+      <c r="A11" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="55" t="s">
+      <c r="C12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="58" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="56" t="s">
+      <c r="B17" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="C17" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="C18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="55"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-    </row>
-    <row r="11" spans="1:4" s="55" customFormat="1" ht="15">
-      <c r="A11" s="55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="63"/>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="23" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="66"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="66"/>
+      <c r="A22" s="33"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="68"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="67"/>
+      <c r="A25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="68"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="67"/>
+      <c r="A27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2487,23 +2714,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -2626,12 +2853,12 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="58.5" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -2654,12 +2881,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" ht="58.5" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -2706,23 +2933,23 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -2831,12 +3058,12 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
@@ -2859,12 +3086,12 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
@@ -2895,16 +3122,16 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
@@ -2970,265 +3197,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2005A-2F44-4363-9B97-D6B4F0A935C6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="180">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:4" ht="143.25">
+      <c r="A4" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:4" ht="29.25">
+      <c r="A5" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" ht="57.75">
+      <c r="A6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="D6" s="60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.25">
+      <c r="A8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="24" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" ht="29.25">
+      <c r="A10" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="186">
+      <c r="A11" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="24" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="63"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:4" ht="86.25">
+      <c r="A16" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="24" t="s">
+      <c r="D16" s="67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="24" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="1:4" ht="129">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="D18" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="171.75">
+      <c r="A19" s="54"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="55" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="195">
-      <c r="A11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="35"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" ht="75">
-      <c r="A16" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:4" ht="135">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="165">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="51"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="21"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3242,23 +3479,23 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -3387,12 +3624,12 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -3415,12 +3652,12 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
@@ -3513,23 +3750,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -3658,12 +3895,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -3686,12 +3923,12 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
@@ -3750,12 +3987,12 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="18">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
@@ -3778,12 +4015,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7"/>
